--- a/if.xlsx
+++ b/if.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gittt\git-lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647820FC-A52D-4142-AEEB-5FB09CA37823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B50968-5189-4A75-AF0C-F71B611B39C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>18.10.2020</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>18/10/2020</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -501,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914BA924-E33D-4653-BAF3-FF179C5A47CE}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +545,9 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/if.xlsx
+++ b/if.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gittt\git-lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B50968-5189-4A75-AF0C-F71B611B39C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F236E4-E0E6-4500-9828-88CF635B7B9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,10 +502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914BA924-E33D-4653-BAF3-FF179C5A47CE}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,12 +515,12 @@
     <col min="3" max="3" width="32.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -528,61 +528,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
